--- a/results/consolidated/10_user_per_2second_stepup.xlsx
+++ b/results/consolidated/10_user_per_2second_stepup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1000" windowWidth="30880" windowHeight="19140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1800" yWindow="1000" windowWidth="30880" windowHeight="19140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
     <sheet name="Throughput" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -113,12 +113,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -131,12 +131,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -175,7 +178,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -244,124 +246,124 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00364583333333333</c:v>
+                  <c:v>3.6458333333333317E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00381944444444444</c:v>
+                  <c:v>3.8194444444444426E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00399305555555555</c:v>
+                  <c:v>3.9930555555555535E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00416666666666666</c:v>
+                  <c:v>4.1666666666666649E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00434027777777778</c:v>
+                  <c:v>4.3402777777777762E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00451388888888889</c:v>
+                  <c:v>4.5138888888888876E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0046875</c:v>
+                  <c:v>4.687499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00486111111111111</c:v>
+                  <c:v>4.8611111111111103E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00503472222222222</c:v>
+                  <c:v>5.0347222222222217E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00520833333333333</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00538194444444444</c:v>
+                  <c:v>5.3819444444444444E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00555555555555555</c:v>
+                  <c:v>5.5555555555555558E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00572916666666667</c:v>
+                  <c:v>5.7291666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00590277777777778</c:v>
+                  <c:v>5.9027777777777785E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00607638888888889</c:v>
+                  <c:v>6.0763888888888899E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00625</c:v>
+                  <c:v>6.2500000000000012E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00642361111111111</c:v>
+                  <c:v>6.4236111111111126E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00659722222222222</c:v>
+                  <c:v>6.5972222222222239E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00677083333333333</c:v>
+                  <c:v>6.7708333333333353E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00694444444444444</c:v>
+                  <c:v>6.9444444444444467E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,40 +375,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.054</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.035</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.065</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.065</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.064</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.065</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.084</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.126</c:v>
@@ -415,79 +417,79 @@
                   <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.064</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.069</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.066</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.068</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.058</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.063</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.055</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.071</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.063</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.064</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.068</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.065</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.063</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.058</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.06</c:v>
@@ -496,6 +498,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-876D-5247-B770-ECA3B64EEE09}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -530,124 +537,124 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00364583333333333</c:v>
+                  <c:v>3.6458333333333317E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00381944444444444</c:v>
+                  <c:v>3.8194444444444426E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00399305555555555</c:v>
+                  <c:v>3.9930555555555535E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00416666666666666</c:v>
+                  <c:v>4.1666666666666649E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00434027777777778</c:v>
+                  <c:v>4.3402777777777762E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00451388888888889</c:v>
+                  <c:v>4.5138888888888876E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0046875</c:v>
+                  <c:v>4.687499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00486111111111111</c:v>
+                  <c:v>4.8611111111111103E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00503472222222222</c:v>
+                  <c:v>5.0347222222222217E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00520833333333333</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00538194444444444</c:v>
+                  <c:v>5.3819444444444444E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00555555555555555</c:v>
+                  <c:v>5.5555555555555558E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00572916666666667</c:v>
+                  <c:v>5.7291666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00590277777777778</c:v>
+                  <c:v>5.9027777777777785E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00607638888888889</c:v>
+                  <c:v>6.0763888888888899E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00625</c:v>
+                  <c:v>6.2500000000000012E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00642361111111111</c:v>
+                  <c:v>6.4236111111111126E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00659722222222222</c:v>
+                  <c:v>6.5972222222222239E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00677083333333333</c:v>
+                  <c:v>6.7708333333333353E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00694444444444444</c:v>
+                  <c:v>6.9444444444444467E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,25 +666,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.334</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.421</c:v>
+                  <c:v>0.42099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.786</c:v>
+                  <c:v>0.78600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.451</c:v>
+                  <c:v>1.4510000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.237</c:v>
+                  <c:v>1.2370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.39</c:v>
@@ -689,99 +696,104 @@
                   <c:v>1.286</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.445</c:v>
+                  <c:v>1.4450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.168</c:v>
+                  <c:v>1.1679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.923</c:v>
+                  <c:v>0.92300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.863</c:v>
+                  <c:v>0.86299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.971</c:v>
+                  <c:v>0.97099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.828</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.548</c:v>
+                  <c:v>0.54800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.717</c:v>
+                  <c:v>0.71699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.581</c:v>
+                  <c:v>0.58099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.555</c:v>
+                  <c:v>0.55500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.526</c:v>
+                  <c:v>0.52600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.494</c:v>
+                  <c:v>0.49399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.399</c:v>
+                  <c:v>0.39900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.292</c:v>
+                  <c:v>0.29199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.598</c:v>
+                  <c:v>0.59799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.347</c:v>
+                  <c:v>0.34699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.396</c:v>
+                  <c:v>0.39600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.538</c:v>
+                  <c:v>0.53800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.536</c:v>
+                  <c:v>0.53600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.349</c:v>
+                  <c:v>0.34899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.262</c:v>
+                  <c:v>0.26200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.284</c:v>
+                  <c:v>0.28399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.354</c:v>
+                  <c:v>0.35399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.442</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.265</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.418</c:v>
+                  <c:v>0.41799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-876D-5247-B770-ECA3B64EEE09}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -816,124 +828,124 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00364583333333333</c:v>
+                  <c:v>3.6458333333333317E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00381944444444444</c:v>
+                  <c:v>3.8194444444444426E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00399305555555555</c:v>
+                  <c:v>3.9930555555555535E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00416666666666666</c:v>
+                  <c:v>4.1666666666666649E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00434027777777778</c:v>
+                  <c:v>4.3402777777777762E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00451388888888889</c:v>
+                  <c:v>4.5138888888888876E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0046875</c:v>
+                  <c:v>4.687499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00486111111111111</c:v>
+                  <c:v>4.8611111111111103E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00503472222222222</c:v>
+                  <c:v>5.0347222222222217E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00520833333333333</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00538194444444444</c:v>
+                  <c:v>5.3819444444444444E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00555555555555555</c:v>
+                  <c:v>5.5555555555555558E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00572916666666667</c:v>
+                  <c:v>5.7291666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00590277777777778</c:v>
+                  <c:v>5.9027777777777785E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00607638888888889</c:v>
+                  <c:v>6.0763888888888899E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00625</c:v>
+                  <c:v>6.2500000000000012E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00642361111111111</c:v>
+                  <c:v>6.4236111111111126E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00659722222222222</c:v>
+                  <c:v>6.5972222222222239E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00677083333333333</c:v>
+                  <c:v>6.7708333333333353E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00694444444444444</c:v>
+                  <c:v>6.9444444444444467E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,22 +957,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.599</c:v>
+                  <c:v>0.59899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.381</c:v>
+                  <c:v>0.38100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.382</c:v>
+                  <c:v>0.38200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.142</c:v>
+                  <c:v>0.14199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.118</c:v>
+                  <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.123</c:v>
@@ -969,43 +981,43 @@
                   <c:v>0.129</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.141</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.136</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.136</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.164</c:v>
+                  <c:v>0.16400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.165</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.177</c:v>
+                  <c:v>0.17699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.197</c:v>
+                  <c:v>0.19700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.165</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.147</c:v>
+                  <c:v>0.14699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.131</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.125</c:v>
@@ -1017,34 +1029,34 @@
                   <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.103</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.135</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.144</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.119</c:v>
+                  <c:v>0.11899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.137</c:v>
+                  <c:v>0.13700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.135</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.162</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.131</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.12</c:v>
@@ -1056,18 +1068,23 @@
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.143</c:v>
+                  <c:v>0.14299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.142</c:v>
+                  <c:v>0.14199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.132</c:v>
+                  <c:v>0.13200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-876D-5247-B770-ECA3B64EEE09}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1118,124 +1135,124 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00364583333333333</c:v>
+                  <c:v>3.6458333333333317E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00381944444444444</c:v>
+                  <c:v>3.8194444444444426E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00399305555555555</c:v>
+                  <c:v>3.9930555555555535E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00416666666666666</c:v>
+                  <c:v>4.1666666666666649E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00434027777777778</c:v>
+                  <c:v>4.3402777777777762E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00451388888888889</c:v>
+                  <c:v>4.5138888888888876E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0046875</c:v>
+                  <c:v>4.687499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00486111111111111</c:v>
+                  <c:v>4.8611111111111103E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00503472222222222</c:v>
+                  <c:v>5.0347222222222217E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00520833333333333</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00538194444444444</c:v>
+                  <c:v>5.3819444444444444E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00555555555555555</c:v>
+                  <c:v>5.5555555555555558E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00572916666666667</c:v>
+                  <c:v>5.7291666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00590277777777778</c:v>
+                  <c:v>5.9027777777777785E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00607638888888889</c:v>
+                  <c:v>6.0763888888888899E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00625</c:v>
+                  <c:v>6.2500000000000012E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00642361111111111</c:v>
+                  <c:v>6.4236111111111126E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00659722222222222</c:v>
+                  <c:v>6.5972222222222239E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00677083333333333</c:v>
+                  <c:v>6.7708333333333353E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00694444444444444</c:v>
+                  <c:v>6.9444444444444467E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,129 +1264,134 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240.0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>460.0</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>540.0</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>610.0</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>690.0</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>760.0</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>840.0</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>910.0</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>990.0</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-876D-5247-B770-ECA3B64EEE09}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1477,12 +1499,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average Response Time (ms)</a:t>
+                  <a:t>Average Response Time (seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1512,6 +1533,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1579,7 +1601,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1609,6 +1630,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1655,6 +1677,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1848918640"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1670,7 +1693,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1738,7 +1760,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1777,7 +1799,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1846,124 +1867,124 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555551E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5624999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.736111111111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444447E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555556E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666665E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.7777777777777779E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888888E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.472222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00364583333333333</c:v>
+                  <c:v>3.645833333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00381944444444444</c:v>
+                  <c:v>3.8194444444444443E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00399305555555555</c:v>
+                  <c:v>3.9930555555555561E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00416666666666667</c:v>
+                  <c:v>4.1666666666666666E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00434027777777778</c:v>
+                  <c:v>4.340277777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00451388888888889</c:v>
+                  <c:v>4.5138888888888893E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0046875</c:v>
+                  <c:v>4.6874999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00486111111111111</c:v>
+                  <c:v>4.8611111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00503472222222222</c:v>
+                  <c:v>5.0347222222222225E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00520833333333333</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00538194444444444</c:v>
+                  <c:v>5.3819444444444453E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00555555555555555</c:v>
+                  <c:v>5.5555555555555558E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00572916666666667</c:v>
+                  <c:v>5.7291666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00590277777777778</c:v>
+                  <c:v>5.9027777777777776E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00607638888888889</c:v>
+                  <c:v>6.076388888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00625</c:v>
+                  <c:v>6.2499999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00642361111111111</c:v>
+                  <c:v>6.4236111111111117E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00659722222222222</c:v>
+                  <c:v>6.5972222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00677083333333333</c:v>
+                  <c:v>6.7708333333333336E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00694444444444444</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,49 +1999,49 @@
                   <c:v>148.267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>359.867</c:v>
+                  <c:v>359.86700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>566.7329999999999</c:v>
+                  <c:v>566.73299999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>776.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>961.867</c:v>
+                  <c:v>961.86699999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1145.533</c:v>
+                  <c:v>1145.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1274.267</c:v>
+                  <c:v>1274.2670000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1506.733</c:v>
+                  <c:v>1506.7329999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1662.733</c:v>
+                  <c:v>1662.7329999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1863.267</c:v>
+                  <c:v>1863.2670000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2076.733</c:v>
+                  <c:v>2076.7330000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2191.067</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2099.2</c:v>
+                  <c:v>2099.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2459.533</c:v>
+                  <c:v>2459.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2593.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2609.2</c:v>
+                  <c:v>2609.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2549.4</c:v>
@@ -2029,19 +2050,19 @@
                   <c:v>2650.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2636.0</c:v>
+                  <c:v>2636</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2589.267</c:v>
+                  <c:v>2589.2669999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2582.467</c:v>
+                  <c:v>2582.4670000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2621.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2596.333</c:v>
+                  <c:v>2596.3330000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2659.933</c:v>
@@ -2059,31 +2080,31 @@
                   <c:v>2621.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2557.733</c:v>
+                  <c:v>2557.7330000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2608.267</c:v>
+                  <c:v>2608.2669999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2630.067</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2587.733</c:v>
+                  <c:v>2587.7330000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2672.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2620.0</c:v>
+                  <c:v>2620</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2635.533</c:v>
+                  <c:v>2635.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2592.267</c:v>
+                  <c:v>2592.2669999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2640.533</c:v>
+                  <c:v>2640.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2599.933</c:v>
@@ -2092,12 +2113,17 @@
                   <c:v>2667.933</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2622.867</c:v>
+                  <c:v>2622.8670000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AC3-2F4F-9081-4D66C0B98C07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2132,124 +2158,124 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555551E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5624999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.736111111111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444447E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555556E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666665E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.7777777777777779E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888888E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.472222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00364583333333333</c:v>
+                  <c:v>3.645833333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00381944444444444</c:v>
+                  <c:v>3.8194444444444443E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00399305555555555</c:v>
+                  <c:v>3.9930555555555561E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00416666666666667</c:v>
+                  <c:v>4.1666666666666666E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00434027777777778</c:v>
+                  <c:v>4.340277777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00451388888888889</c:v>
+                  <c:v>4.5138888888888893E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0046875</c:v>
+                  <c:v>4.6874999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00486111111111111</c:v>
+                  <c:v>4.8611111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00503472222222222</c:v>
+                  <c:v>5.0347222222222225E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00520833333333333</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00538194444444444</c:v>
+                  <c:v>5.3819444444444453E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00555555555555555</c:v>
+                  <c:v>5.5555555555555558E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00572916666666667</c:v>
+                  <c:v>5.7291666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00590277777777778</c:v>
+                  <c:v>5.9027777777777776E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00607638888888889</c:v>
+                  <c:v>6.076388888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00625</c:v>
+                  <c:v>6.2499999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00642361111111111</c:v>
+                  <c:v>6.4236111111111117E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00659722222222222</c:v>
+                  <c:v>6.5972222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00677083333333333</c:v>
+                  <c:v>6.7708333333333336E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00694444444444444</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,22 +2287,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>88.267</c:v>
+                  <c:v>88.266999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183.933</c:v>
+                  <c:v>183.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>173.133</c:v>
+                  <c:v>173.13300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168.067</c:v>
+                  <c:v>168.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>198.133</c:v>
+                  <c:v>198.13300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>219.867</c:v>
+                  <c:v>219.86699999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>288.733</c:v>
@@ -2285,46 +2311,46 @@
                   <c:v>348.733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373.067</c:v>
+                  <c:v>373.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>383.667</c:v>
+                  <c:v>383.66699999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>573.133</c:v>
+                  <c:v>573.13300000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>689.993</c:v>
+                  <c:v>689.99300000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>651.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>756.0</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>948.467</c:v>
+                  <c:v>948.46699999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>826.133</c:v>
+                  <c:v>826.13300000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>966.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>964.467</c:v>
+                  <c:v>964.46699999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1120.267</c:v>
+                  <c:v>1120.2670000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1076.333</c:v>
+                  <c:v>1076.3330000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1077.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1308.267</c:v>
+                  <c:v>1308.2670000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1260.867</c:v>
@@ -2336,7 +2362,7 @@
                   <c:v>1431.6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1384.333</c:v>
+                  <c:v>1384.3330000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1371.4</c:v>
@@ -2348,19 +2374,19 @@
                   <c:v>1678.867</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>794.067</c:v>
+                  <c:v>794.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1556.533</c:v>
+                  <c:v>1556.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1774.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1717.467</c:v>
+                  <c:v>1717.4670000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1528.333</c:v>
+                  <c:v>1528.3330000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1357.867</c:v>
@@ -2375,7 +2401,7 @@
                   <c:v>1608.8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1857.333</c:v>
+                  <c:v>1857.3330000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1360.6</c:v>
@@ -2384,6 +2410,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AC3-2F4F-9081-4D66C0B98C07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2418,124 +2449,124 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555551E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5624999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.736111111111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444447E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555556E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666665E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.7777777777777779E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888888E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.472222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00364583333333333</c:v>
+                  <c:v>3.645833333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00381944444444444</c:v>
+                  <c:v>3.8194444444444443E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00399305555555555</c:v>
+                  <c:v>3.9930555555555561E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00416666666666667</c:v>
+                  <c:v>4.1666666666666666E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00434027777777778</c:v>
+                  <c:v>4.340277777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00451388888888889</c:v>
+                  <c:v>4.5138888888888893E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0046875</c:v>
+                  <c:v>4.6874999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00486111111111111</c:v>
+                  <c:v>4.8611111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00503472222222222</c:v>
+                  <c:v>5.0347222222222225E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00520833333333333</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00538194444444444</c:v>
+                  <c:v>5.3819444444444453E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00555555555555555</c:v>
+                  <c:v>5.5555555555555558E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00572916666666667</c:v>
+                  <c:v>5.7291666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00590277777777778</c:v>
+                  <c:v>5.9027777777777776E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00607638888888889</c:v>
+                  <c:v>6.076388888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00625</c:v>
+                  <c:v>6.2499999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00642361111111111</c:v>
+                  <c:v>6.4236111111111117E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00659722222222222</c:v>
+                  <c:v>6.5972222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00677083333333333</c:v>
+                  <c:v>6.7708333333333336E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00694444444444444</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,25 +2587,25 @@
                   <c:v>252.267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468.933</c:v>
+                  <c:v>468.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>601.933</c:v>
+                  <c:v>601.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>731.667</c:v>
+                  <c:v>731.66700000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>850.867</c:v>
+                  <c:v>850.86699999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>959.067</c:v>
+                  <c:v>959.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1074.733</c:v>
+                  <c:v>1074.7329999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1233.6</c:v>
+                  <c:v>1233.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1302.2</c:v>
@@ -2589,7 +2620,7 @@
                   <c:v>1541.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1536.533</c:v>
+                  <c:v>1536.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1518.133</c:v>
@@ -2598,13 +2629,13 @@
                   <c:v>1484.133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1584.0</c:v>
+                  <c:v>1584</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1548.533</c:v>
+                  <c:v>1548.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1619.267</c:v>
+                  <c:v>1619.2670000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1642.067</c:v>
@@ -2613,7 +2644,7 @@
                   <c:v>1659.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1551.0</c:v>
+                  <c:v>1551</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1689.6</c:v>
@@ -2628,22 +2659,22 @@
                   <c:v>1632.067</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1672.0</c:v>
+                  <c:v>1672</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1633.667</c:v>
+                  <c:v>1633.6669999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1650.0</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1647.0</c:v>
+                  <c:v>1647</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1676.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1561.667</c:v>
+                  <c:v>1561.6669999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1658.2</c:v>
@@ -2652,7 +2683,7 @@
                   <c:v>1697.133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1689.267</c:v>
+                  <c:v>1689.2670000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1683.6</c:v>
@@ -2661,7 +2692,7 @@
                   <c:v>1612.8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1621.0</c:v>
+                  <c:v>1621</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1642.133</c:v>
@@ -2670,6 +2701,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2AC3-2F4F-9081-4D66C0B98C07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2720,124 +2756,124 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555551E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5624999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.736111111111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444447E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555556E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666665E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.7777777777777779E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888888E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.472222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00364583333333333</c:v>
+                  <c:v>3.645833333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00381944444444444</c:v>
+                  <c:v>3.8194444444444443E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00399305555555555</c:v>
+                  <c:v>3.9930555555555561E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00416666666666667</c:v>
+                  <c:v>4.1666666666666666E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00434027777777778</c:v>
+                  <c:v>4.340277777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00451388888888889</c:v>
+                  <c:v>4.5138888888888893E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0046875</c:v>
+                  <c:v>4.6874999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00486111111111111</c:v>
+                  <c:v>4.8611111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00503472222222222</c:v>
+                  <c:v>5.0347222222222225E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00520833333333333</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00538194444444444</c:v>
+                  <c:v>5.3819444444444453E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00555555555555555</c:v>
+                  <c:v>5.5555555555555558E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00572916666666667</c:v>
+                  <c:v>5.7291666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00590277777777778</c:v>
+                  <c:v>5.9027777777777776E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00607638888888889</c:v>
+                  <c:v>6.076388888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00625</c:v>
+                  <c:v>6.2499999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00642361111111111</c:v>
+                  <c:v>6.4236111111111117E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00659722222222222</c:v>
+                  <c:v>6.5972222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00677083333333333</c:v>
+                  <c:v>6.7708333333333336E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00694444444444444</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2849,129 +2885,134 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240.0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>460.0</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>540.0</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>610.0</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>690.0</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>760.0</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>840.0</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>910.0</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>990.0</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2AC3-2F4F-9081-4D66C0B98C07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3088,7 +3129,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3118,6 +3158,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3185,7 +3226,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3215,6 +3255,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3277,7 +3318,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4473,7 +4513,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4508,7 +4554,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4793,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4805,11 +4857,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4847,7 +4899,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f>TIME(0,0,15)+A3</f>
+        <f t="shared" ref="A4:A9" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="B4" s="2">
@@ -4865,7 +4917,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f>TIME(0,0,15)+A4</f>
+        <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="B5" s="2">
@@ -4883,7 +4935,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f>TIME(0,0,15)+A5</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="B6" s="2">
@@ -4901,7 +4953,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f>TIME(0,0,15)+A6</f>
+        <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
       </c>
       <c r="B7" s="2">
@@ -4919,7 +4971,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>TIME(0,0,15)+A7</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="B8" s="2">
@@ -4937,7 +4989,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f>TIME(0,0,15)+A8</f>
+        <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
       </c>
       <c r="B9" s="2">
@@ -4955,7 +5007,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f t="shared" ref="A10:A20" si="0">TIME(0,0,15)+A9</f>
+        <f t="shared" ref="A10:A20" si="1">TIME(0,0,15)+A9</f>
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="B10" s="2">
@@ -4973,7 +5025,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5625000000000001E-3</v>
       </c>
       <c r="B11" s="2">
@@ -4991,7 +5043,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7361111111111112E-3</v>
       </c>
       <c r="B12" s="2">
@@ -5009,7 +5061,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9097222222222224E-3</v>
       </c>
       <c r="B13" s="2">
@@ -5027,7 +5079,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="B14" s="2">
@@ -5045,7 +5097,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2569444444444442E-3</v>
       </c>
       <c r="B15" s="2">
@@ -5063,7 +5115,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4305555555555552E-3</v>
       </c>
       <c r="B16" s="2">
@@ -5081,7 +5133,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6041666666666661E-3</v>
       </c>
       <c r="B17" s="2">
@@ -5099,7 +5151,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.777777777777777E-3</v>
       </c>
       <c r="B18" s="2">
@@ -5117,7 +5169,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9513888888888879E-3</v>
       </c>
       <c r="B19" s="2">
@@ -5135,7 +5187,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1249999999999989E-3</v>
       </c>
       <c r="B20" s="2">
@@ -5243,7 +5295,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <f t="shared" ref="A26:A38" si="1">TIME(0,0,15)+A25</f>
+        <f t="shared" ref="A26:A38" si="2">TIME(0,0,15)+A25</f>
         <v>4.1666666666666649E-3</v>
       </c>
       <c r="B26" s="2">
@@ -5261,7 +5313,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3402777777777762E-3</v>
       </c>
       <c r="B27" s="2">
@@ -5279,7 +5331,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5138888888888876E-3</v>
       </c>
       <c r="B28" s="2">
@@ -5297,7 +5349,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.687499999999999E-3</v>
       </c>
       <c r="B29" s="2">
@@ -5315,7 +5367,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8611111111111103E-3</v>
       </c>
       <c r="B30" s="2">
@@ -5333,7 +5385,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0347222222222217E-3</v>
       </c>
       <c r="B31" s="2">
@@ -5351,7 +5403,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="B32" s="2">
@@ -5369,7 +5421,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3819444444444444E-3</v>
       </c>
       <c r="B33" s="2">
@@ -5387,7 +5439,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="B34" s="2">
@@ -5405,7 +5457,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7291666666666671E-3</v>
       </c>
       <c r="B35" s="2">
@@ -5423,7 +5475,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9027777777777785E-3</v>
       </c>
       <c r="B36" s="2">
@@ -5441,7 +5493,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0763888888888899E-3</v>
       </c>
       <c r="B37" s="2">
@@ -5459,7 +5511,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2500000000000012E-3</v>
       </c>
       <c r="B38" s="2">
@@ -5560,7 +5612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -5572,11 +5624,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -5596,682 +5648,682 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>90</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>148.267</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>88.266999999999996</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>53.8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>160</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>359.86700000000002</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>183.93299999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>143.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>5.2083333333333333E-4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>240</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>566.73299999999995</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>173.13300000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>252.267</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>310</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>776.4</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>168.06700000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>468.93299999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>8.6805555555555551E-4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>390</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>961.86699999999996</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>198.13300000000001</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>601.93299999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>460</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1145.5329999999999</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>219.86699999999999</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>731.66700000000003</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>1.2152777777777778E-3</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>540</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1274.2670000000001</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>288.733</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>850.86699999999996</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>610</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1506.7329999999999</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>348.733</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>959.06700000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>1.5624999999999999E-3</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>690</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1662.7329999999999</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>373.06700000000001</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1074.7329999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>1.736111111111111E-3</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>760</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1863.2670000000001</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>383.66699999999997</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>1233.5999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>840</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2076.7330000000002</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>573.13300000000004</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1302.2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>910</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>2191.067</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>689.99300000000005</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>1455.067</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2.2569444444444447E-3</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>990</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>2099.1999999999998</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>651.6</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1490.133</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2.4305555555555556E-3</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>1000</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>2459.5329999999999</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>756</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>1541.6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2.6041666666666665E-3</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>1000</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>2593.6</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>948.46699999999998</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>1536.5329999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>1000</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>2609.1999999999998</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>826.13300000000004</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>1518.133</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>2.9513888888888888E-3</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>1000</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>2549.4</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>966.4</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>1484.133</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>3.1249999999999997E-3</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>1000</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>2650.8</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>964.46699999999998</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>1584</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>3.2986111111111111E-3</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>1000</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>2636</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>1120.2670000000001</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>1548.5329999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>1000</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2589.2669999999998</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>1076.3330000000001</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>1619.2670000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>3.645833333333333E-3</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>1000</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>2582.4670000000001</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>1077.8</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>1642.067</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>1000</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>2621.8</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>1308.2670000000001</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1659.4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>3.9930555555555561E-3</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>1000</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>2596.3330000000001</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>1260.867</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>1551</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>1000</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>2659.933</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>1296.933</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>1689.6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>1000</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>2649.2</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>1431.6</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>1717.6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>4.5138888888888893E-3</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>1000</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>2582.6</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>1384.3330000000001</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>1628.6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>4.6874999999999998E-3</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>1000</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>2600.6</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>1371.4</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>1632.067</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>1000</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>2621.6</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>1424.133</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>1672</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>5.0347222222222225E-3</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>1000</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>2557.7330000000002</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>1678.867</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>1633.6669999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>1000</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>2608.2669999999998</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>794.06700000000001</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>1650</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>5.3819444444444453E-3</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>1000</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>2630.067</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>1556.5329999999999</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>1647</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>1000</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>2587.7330000000002</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>1774.4</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>1676.8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>5.7291666666666671E-3</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>1000</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>2672.2</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>1717.4670000000001</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>1561.6669999999999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>1000</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>2620</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>1528.3330000000001</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>1658.2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>6.076388888888889E-3</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>1000</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>2635.5329999999999</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>1357.867</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>1697.133</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>1000</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>2592.2669999999998</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>1872.867</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>1689.2670000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>6.4236111111111117E-3</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>1000</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>2640.5329999999999</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>1595.133</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>1683.6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>6.5972222222222222E-3</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>1000</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>2599.933</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>1608.8</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>1612.8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>6.7708333333333336E-3</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>1000</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>2667.933</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>1857.3330000000001</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>1621</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>1000</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>2622.8670000000002</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>1360.6</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>1642.133</v>
       </c>
     </row>

--- a/results/consolidated/10_user_per_2second_stepup.xlsx
+++ b/results/consolidated/10_user_per_2second_stepup.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrandall/Code/serverlessJsScalingComparison/results/consolidated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\serverlessJsScalingComparison\results\consolidated\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1000" windowWidth="30880" windowHeight="19140" tabRatio="500"/>
+    <workbookView xWindow="1800" yWindow="1000" windowWidth="30880" windowHeight="19140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>AWS Lambda</t>
-  </si>
-  <si>
-    <t>Azure Functions</t>
   </si>
   <si>
     <t>Google Cloud Functions</t>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>Requests per Second</t>
+  </si>
+  <si>
+    <t>Azure Functions (Mar 18)</t>
+  </si>
+  <si>
+    <t>Azure Functions (Jan 18)</t>
   </si>
 </sst>
 </file>
@@ -505,297 +508,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Performance!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Azure Functions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Performance!$A$3:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>1.7361111111111112E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4722222222222224E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2083333333333333E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9444444444444447E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6805555555555562E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0416666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2152777777777778E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3888888888888889E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5625000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7361111111111112E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9097222222222224E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0833333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2569444444444442E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4305555555555552E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6041666666666661E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.777777777777777E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9513888888888879E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1249999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2986111111111098E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.4722222222222207E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.6458333333333317E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8194444444444426E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.9930555555555535E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.1666666666666649E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3402777777777762E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.5138888888888876E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.687499999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.8611111111111103E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.0347222222222217E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.208333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.3819444444444444E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.5555555555555558E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.7291666666666671E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.9027777777777785E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.0763888888888899E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.2500000000000012E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.4236111111111126E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.5972222222222239E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.7708333333333353E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.9444444444444467E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Performance!$D$3:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.42099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.482</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4510000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2370000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.234</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.286</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4450000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1679999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.92300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.86299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.97099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.82799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.54800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.71699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.58099999999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.55500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.52600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.49399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.39900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.29199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.59799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.34699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.39600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.53800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.53600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.34899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.26200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.28399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.442</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.26500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.41799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.214</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-876D-5247-B770-ECA3B64EEE09}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -1086,6 +798,297 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6458333333333317E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8194444444444426E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9930555555555535E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1666666666666649E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3402777777777762E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5138888888888876E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.687499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0347222222222217E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.208333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3819444444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5555555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7291666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9027777777777785E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0763888888888899E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2500000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.4236111111111126E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5972222222222239E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7708333333333353E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9444444444444467E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$F$3:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AE0-4A5D-A624-ADD9659F48F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1098,6 +1101,321 @@
         <c:smooth val="0"/>
         <c:axId val="1809810128"/>
         <c:axId val="1809813344"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Azure Functions (Jan 18)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$A$3:$A$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.6458333333333317E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3.8194444444444426E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3.9930555555555535E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.1666666666666649E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.3402777777777762E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.5138888888888876E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.687499999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.8611111111111103E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5.0347222222222217E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5.208333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5.3819444444444444E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5.5555555555555558E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.7291666666666671E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>5.9027777777777785E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>6.0763888888888899E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>6.2500000000000012E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>6.4236111111111126E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>6.5972222222222239E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>6.7708333333333353E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>6.9444444444444467E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$D$3:$D$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>0.33400000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.42099999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.78600000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.482</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.4510000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.49</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2370000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.39</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.234</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.286</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.4450000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.006</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.1679999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.92300000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.86299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.97099999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.73</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.82799999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.54800000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.71699999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.58099999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.55500000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.52600000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.49399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.39900000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.29199999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.59799999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.34699999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.39600000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.53800000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.53600000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.34899999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.26200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.28399999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.35399999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.442</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.26500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.41799999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.214</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.21199999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-876D-5247-B770-ECA3B64EEE09}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1794,6 +2112,1965 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Azure Functions - Performance - January 18 vs March 18</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Jan 18)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6458333333333317E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8194444444444426E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9930555555555535E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1666666666666649E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3402777777777762E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5138888888888876E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.687499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0347222222222217E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.208333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3819444444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5555555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7291666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9027777777777785E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0763888888888899E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2500000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.4236111111111126E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5972222222222239E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7708333333333353E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9444444444444467E-3</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$D$3:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.234</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.41799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F61A-4FDF-85FB-D4020EE5E8B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6458333333333317E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8194444444444426E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9930555555555535E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1666666666666649E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3402777777777762E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5138888888888876E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.687499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0347222222222217E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.208333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3819444444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5555555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7291666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9027777777777785E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0763888888888899E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2500000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.4236111111111126E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5972222222222239E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7708333333333353E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9444444444444467E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$F$3:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F61A-4FDF-85FB-D4020EE5E8B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1809810128"/>
+        <c:axId val="1809813344"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AWS Lambda</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$A$3:$A$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.6458333333333317E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3.8194444444444426E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3.9930555555555535E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.1666666666666649E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.3402777777777762E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.5138888888888876E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.687499999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.8611111111111103E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5.0347222222222217E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5.208333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5.3819444444444444E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5.5555555555555558E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.7291666666666671E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>5.9027777777777785E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>6.0763888888888899E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>6.2500000000000012E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>6.4236111111111126E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>6.5972222222222239E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>6.7708333333333353E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>6.9444444444444467E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$C$3:$C$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>5.3999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.9E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.5000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.9E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.2000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.1999999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.5000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.5000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.4000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.5000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.4000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.126</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.106</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6.4000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6.9000000000000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6.6000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>6.8000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5.8000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>6.3E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>5.5E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7.0999999999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>6.3E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>6.4000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>6.8000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.1999999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>6.5000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>6.3E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>5.8000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>5.7000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>5.7000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-F61A-4FDF-85FB-D4020EE5E8B2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Google Cloud Functions</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$A$3:$A$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.6458333333333317E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3.8194444444444426E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3.9930555555555535E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.1666666666666649E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.3402777777777762E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.5138888888888876E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.687499999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.8611111111111103E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5.0347222222222217E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5.208333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5.3819444444444444E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5.5555555555555558E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.7291666666666671E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>5.9027777777777785E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>6.0763888888888899E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>6.2500000000000012E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>6.4236111111111126E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>6.5972222222222239E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>6.7708333333333353E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>6.9444444444444467E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$E$3:$E$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>0.59899999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.38100000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.38200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.14199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.11799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.123</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.129</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.14099999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.13600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.13600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.16400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.16500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.17699999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.185</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.19700000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.157</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.16500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.14699999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.13100000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.125</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.17</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.122</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.10299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.13500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.14399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.11899999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.13700000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.13500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.115</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.16200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.13100000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.115</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.14299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.14199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.13200000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-F61A-4FDF-85FB-D4020EE5E8B2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User Load</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6458333333333317E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8194444444444426E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9930555555555535E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1666666666666649E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3402777777777762E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5138888888888876E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.687499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0347222222222217E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.208333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3819444444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5555555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7291666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9027777777777785E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0763888888888899E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2500000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.4236111111111126E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5972222222222239E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7708333333333353E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9444444444444467E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$3:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F61A-4FDF-85FB-D4020EE5E8B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1807029744"/>
+        <c:axId val="1848918640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1809810128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809813344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1809813344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Response Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809810128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1848918640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>User Load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807029744"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1807029744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1848918640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Throughput</a:t>
             </a:r>
           </a:p>
@@ -2126,297 +4403,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Throughput!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Azure Functions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Throughput!$A$3:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>1.7361111111111112E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4722222222222224E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2083333333333333E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9444444444444447E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6805555555555551E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0416666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2152777777777778E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3888888888888889E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5624999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.736111111111111E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9097222222222222E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0833333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2569444444444447E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4305555555555556E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6041666666666665E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.7777777777777779E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9513888888888888E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1249999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2986111111111111E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.472222222222222E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.645833333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8194444444444443E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.9930555555555561E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.1666666666666666E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.340277777777778E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.5138888888888893E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.6874999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.8611111111111112E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.0347222222222225E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.208333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.3819444444444453E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.5555555555555558E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.7291666666666671E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.9027777777777776E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.076388888888889E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.4236111111111117E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.5972222222222222E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.7708333333333336E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.9444444444444441E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Throughput!$D$3:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>88.266999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>183.93299999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>173.13300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>168.06700000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>198.13300000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>219.86699999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>288.733</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>348.733</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>373.06700000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>383.66699999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>573.13300000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>689.99300000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>651.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>756</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>948.46699999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>826.13300000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>966.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>964.46699999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1120.2670000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1076.3330000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1077.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1308.2670000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1260.867</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1296.933</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1431.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1384.3330000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1371.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1424.133</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1678.867</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>794.06700000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1556.5329999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1774.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1717.4670000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1528.3330000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1357.867</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1872.867</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1595.133</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1608.8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1857.3330000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1360.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2AC3-2F4F-9081-4D66C0B98C07}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -2707,6 +4693,297 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555551E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5624999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555556E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666665E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7777777777777779E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888888E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.645833333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8194444444444443E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9930555555555561E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.340277777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5138888888888893E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6874999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8611111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0347222222222225E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.208333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3819444444444453E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5555555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7291666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9027777777777776E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.076388888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.4236111111111117E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5972222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7708333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9444444444444441E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$F$3:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>112.667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>283.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>447.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>612.86699999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>773.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>933.66700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1093.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1239.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1364.6669999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1538.5329999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1671.6669999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1202.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1817.7329999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1982.6669999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1990.7329999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1988.5329999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1992.133</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1988.7329999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1984.933</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1994.133</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1974.5329999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2013.2670000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2104.3330000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2064.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2060.3330000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2080.7330000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2104.933</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2100.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2097.933</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2109.933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2136.7330000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2083.2669999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2111.3330000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2045.4670000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2081.933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB69-49F8-ABF5-9B7F424FCE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2719,6 +4996,321 @@
         <c:smooth val="0"/>
         <c:axId val="1783207664"/>
         <c:axId val="1807396704"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Azure Functions (Jan 18)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$A$3:$A$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555551E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5624999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.736111111111111E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222222E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444447E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555556E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666665E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.7777777777777779E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888888E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111111E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.472222222222222E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.645833333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3.8194444444444443E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3.9930555555555561E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.1666666666666666E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.340277777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.5138888888888893E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.6874999999999998E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.8611111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5.0347222222222225E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5.208333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5.3819444444444453E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5.5555555555555558E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.7291666666666671E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>5.9027777777777776E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>6.076388888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>6.2499999999999995E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>6.4236111111111117E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>6.5972222222222222E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>6.7708333333333336E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>6.9444444444444441E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$D$3:$D$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>88.266999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>183.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>173.13300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>168.06700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>198.13300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>219.86699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>288.733</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>348.733</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>373.06700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>383.66699999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>573.13300000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>689.99300000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>651.6</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>756</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>948.46699999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>826.13300000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>966.4</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>964.46699999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1120.2670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1076.3330000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1077.8</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1308.2670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1260.867</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1296.933</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1431.6</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1384.3330000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1371.4</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1424.133</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1678.867</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>794.06700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1556.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1774.4</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1717.4670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1528.3330000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1357.867</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1872.867</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1595.133</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1608.8</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1857.3330000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1360.6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2AC3-2F4F-9081-4D66C0B98C07}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3011,6 +5603,1977 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2AC3-2F4F-9081-4D66C0B98C07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1849431168"/>
+        <c:axId val="1807400096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1783207664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807396704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1807396704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Requests</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1783207664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1807400096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>User Load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1849431168"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1849431168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1807400096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Azure Functions - Throughput</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>January 2018 vs March 2018</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Jan 18)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555551E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5624999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555556E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666665E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7777777777777779E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888888E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.645833333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8194444444444443E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9930555555555561E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.340277777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5138888888888893E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6874999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8611111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0347222222222225E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.208333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3819444444444453E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5555555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7291666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9027777777777776E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.076388888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.4236111111111117E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5972222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7708333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9444444444444441E-3</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$D$3:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>88.266999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173.13300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.13300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>219.86699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>288.733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>348.733</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>373.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383.66699999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>573.13300000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>689.99300000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>651.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>948.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>826.13300000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>966.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>964.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1120.2670000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1076.3330000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1077.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1308.2670000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1260.867</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1296.933</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1431.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1384.3330000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1371.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1424.133</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1678.867</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>794.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1556.5329999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1774.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1717.4670000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1528.3330000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1357.867</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1872.867</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1595.133</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1608.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1857.3330000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1360.6</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-55AF-4F9A-B956-7955A2C28B78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555551E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5624999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555556E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666665E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7777777777777779E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888888E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.645833333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8194444444444443E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9930555555555561E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.340277777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5138888888888893E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6874999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8611111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0347222222222225E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.208333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3819444444444453E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5555555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7291666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9027777777777776E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.076388888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.4236111111111117E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5972222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7708333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9444444444444441E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$F$3:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>112.667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>283.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>447.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>612.86699999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>773.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>933.66700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1093.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1239.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1364.6669999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1538.5329999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1671.6669999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1202.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1817.7329999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1982.6669999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1990.7329999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1988.5329999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1992.133</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1988.7329999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1984.933</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1994.133</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1974.5329999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2013.2670000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2104.3330000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2064.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2060.3330000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2080.7330000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2104.933</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2100.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2097.933</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2109.933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2136.7330000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2083.2669999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2111.3330000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2045.4670000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2081.933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-55AF-4F9A-B956-7955A2C28B78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1783207664"/>
+        <c:axId val="1807396704"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AWS Lambda</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$A$3:$A$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555551E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5624999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.736111111111111E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222222E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444447E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555556E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666665E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.7777777777777779E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888888E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111111E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.472222222222222E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.645833333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3.8194444444444443E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3.9930555555555561E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.1666666666666666E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.340277777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.5138888888888893E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.6874999999999998E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.8611111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5.0347222222222225E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5.208333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5.3819444444444453E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5.5555555555555558E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.7291666666666671E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>5.9027777777777776E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>6.076388888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>6.2499999999999995E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>6.4236111111111117E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>6.5972222222222222E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>6.7708333333333336E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>6.9444444444444441E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$C$3:$C$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>148.267</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>359.86700000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>566.73299999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>776.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>961.86699999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1145.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1274.2670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1506.7329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1662.7329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1863.2670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2076.7330000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2191.067</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2099.1999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2459.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2593.6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2609.1999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2549.4</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2650.8</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2636</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2589.2669999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2582.4670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2621.8</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2596.3330000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2659.933</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2649.2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2582.6</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2600.6</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2621.6</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2557.7330000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2608.2669999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2630.067</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2587.7330000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2672.2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2620</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2635.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2592.2669999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2640.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2599.933</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2667.933</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2622.8670000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-55AF-4F9A-B956-7955A2C28B78}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Google Cloud Functions</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$A$3:$A$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555551E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5624999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.736111111111111E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222222E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444447E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555556E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666665E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.7777777777777779E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888888E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111111E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.472222222222222E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.645833333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3.8194444444444443E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3.9930555555555561E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.1666666666666666E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.340277777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.5138888888888893E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.6874999999999998E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.8611111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5.0347222222222225E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5.208333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5.3819444444444453E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5.5555555555555558E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.7291666666666671E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>5.9027777777777776E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>6.076388888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>6.2499999999999995E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>6.4236111111111117E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>6.5972222222222222E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>6.7708333333333336E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>6.9444444444444441E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$E$3:$E$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>53.8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>143.6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>252.267</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>468.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>601.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>731.66700000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>850.86699999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>959.06700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1074.7329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1233.5999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1302.2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1455.067</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1490.133</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1541.6</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1536.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1518.133</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1484.133</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1584</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1548.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1619.2670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1642.067</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1659.4</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1551</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1689.6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1717.6</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1628.6</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1632.067</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1672</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1633.6669999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1650</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1647</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1676.8</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1561.6669999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1658.2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1697.133</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1689.2670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1683.6</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1612.8</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1621</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1642.133</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-55AF-4F9A-B956-7955A2C28B78}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User Load</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555551E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5624999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444447E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555556E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666665E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7777777777777779E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888888E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.645833333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8194444444444443E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9930555555555561E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.340277777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5138888888888893E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6874999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8611111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0347222222222225E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.208333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3819444444444453E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5555555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7291666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9027777777777776E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.076388888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.4236111111111117E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5972222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7708333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9444444444444441E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$B$3:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-55AF-4F9A-B956-7955A2C28B78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3425,6 +7988,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4496,6 +9139,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4529,6 +10204,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DB8EEC-1369-4F8E-98EA-1E6A2593C51B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4572,6 +10285,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDAD9AC-1CD7-4F3A-AACB-B021512DF200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4843,44 +10594,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -4896,8 +10651,11 @@
       <c r="E3">
         <v>0.59899999999999998</v>
       </c>
+      <c r="F3">
+        <v>0.20599999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A9" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
@@ -4914,8 +10672,11 @@
       <c r="E4">
         <v>0.38100000000000001</v>
       </c>
+      <c r="F4">
+        <v>0.17399999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -4932,8 +10693,11 @@
       <c r="E5">
         <v>0.38200000000000001</v>
       </c>
+      <c r="F5">
+        <v>0.17100000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -4950,8 +10714,11 @@
       <c r="E6">
         <v>0.14199999999999999</v>
       </c>
+      <c r="F6">
+        <v>0.17100000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -4968,8 +10735,11 @@
       <c r="E7">
         <v>0.12</v>
       </c>
+      <c r="F7">
+        <v>0.17100000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
@@ -4986,8 +10756,11 @@
       <c r="E8">
         <v>0.11799999999999999</v>
       </c>
+      <c r="F8">
+        <v>0.17199999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
@@ -5004,8 +10777,11 @@
       <c r="E9">
         <v>0.123</v>
       </c>
+      <c r="F9">
+        <v>0.17499999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" ref="A10:A20" si="1">TIME(0,0,15)+A9</f>
         <v>1.3888888888888889E-3</v>
@@ -5022,8 +10798,11 @@
       <c r="E10">
         <v>0.129</v>
       </c>
+      <c r="F10">
+        <v>0.17599999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>1.5625000000000001E-3</v>
@@ -5040,8 +10819,11 @@
       <c r="E11">
         <v>0.14099999999999999</v>
       </c>
+      <c r="F11">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>1.7361111111111112E-3</v>
@@ -5058,8 +10840,11 @@
       <c r="E12">
         <v>0.12</v>
       </c>
+      <c r="F12">
+        <v>0.184</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>1.9097222222222224E-3</v>
@@ -5076,8 +10861,11 @@
       <c r="E13">
         <v>0.13600000000000001</v>
       </c>
+      <c r="F13">
+        <v>0.191</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333333E-3</v>
@@ -5094,8 +10882,11 @@
       <c r="E14">
         <v>0.13600000000000001</v>
       </c>
+      <c r="F14">
+        <v>0.45400000000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>2.2569444444444442E-3</v>
@@ -5112,8 +10903,11 @@
       <c r="E15">
         <v>0.16400000000000001</v>
       </c>
+      <c r="F15">
+        <v>0.22900000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>2.4305555555555552E-3</v>
@@ -5130,8 +10924,11 @@
       <c r="E16">
         <v>0.16500000000000001</v>
       </c>
+      <c r="F16">
+        <v>0.20799999999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>2.6041666666666661E-3</v>
@@ -5148,8 +10945,11 @@
       <c r="E17">
         <v>0.17699999999999999</v>
       </c>
+      <c r="F17">
+        <v>0.215</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>2.777777777777777E-3</v>
@@ -5166,8 +10966,11 @@
       <c r="E18">
         <v>0.185</v>
       </c>
+      <c r="F18">
+        <v>0.20399999999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>2.9513888888888879E-3</v>
@@ -5184,8 +10987,11 @@
       <c r="E19">
         <v>0.19700000000000001</v>
       </c>
+      <c r="F19">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>3.1249999999999989E-3</v>
@@ -5202,8 +11008,11 @@
       <c r="E20">
         <v>0.157</v>
       </c>
+      <c r="F20">
+        <v>0.21199999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f>TIME(0,0,15)+A20</f>
         <v>3.2986111111111098E-3</v>
@@ -5220,8 +11029,11 @@
       <c r="E21">
         <v>0.16500000000000001</v>
       </c>
+      <c r="F21">
+        <v>0.20699999999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f>TIME(0,0,15)+A21</f>
         <v>3.4722222222222207E-3</v>
@@ -5238,8 +11050,11 @@
       <c r="E22">
         <v>0.14699999999999999</v>
       </c>
+      <c r="F22">
+        <v>0.20300000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f>TIME(0,0,15)+A22</f>
         <v>3.6458333333333317E-3</v>
@@ -5256,8 +11071,11 @@
       <c r="E23">
         <v>0.13100000000000001</v>
       </c>
+      <c r="F23">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f>TIME(0,0,15)+A23</f>
         <v>3.8194444444444426E-3</v>
@@ -5274,8 +11092,11 @@
       <c r="E24">
         <v>0.125</v>
       </c>
+      <c r="F24">
+        <v>0.20599999999999999</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f>TIME(0,0,15)+A24</f>
         <v>3.9930555555555535E-3</v>
@@ -5292,8 +11113,11 @@
       <c r="E25">
         <v>0.17</v>
       </c>
+      <c r="F25">
+        <v>0.21099999999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f t="shared" ref="A26:A38" si="2">TIME(0,0,15)+A25</f>
         <v>4.1666666666666649E-3</v>
@@ -5310,8 +11134,11 @@
       <c r="E26">
         <v>0.122</v>
       </c>
+      <c r="F26">
+        <v>0.20300000000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f t="shared" si="2"/>
         <v>4.3402777777777762E-3</v>
@@ -5328,8 +11155,11 @@
       <c r="E27">
         <v>0.10299999999999999</v>
       </c>
+      <c r="F27">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f t="shared" si="2"/>
         <v>4.5138888888888876E-3</v>
@@ -5346,8 +11176,11 @@
       <c r="E28">
         <v>0.13500000000000001</v>
       </c>
+      <c r="F28">
+        <v>0.20699999999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f t="shared" si="2"/>
         <v>4.687499999999999E-3</v>
@@ -5364,8 +11197,11 @@
       <c r="E29">
         <v>0.14399999999999999</v>
       </c>
+      <c r="F29">
+        <v>0.187</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f t="shared" si="2"/>
         <v>4.8611111111111103E-3</v>
@@ -5382,8 +11218,11 @@
       <c r="E30">
         <v>0.11899999999999999</v>
       </c>
+      <c r="F30">
+        <v>0.193</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f t="shared" si="2"/>
         <v>5.0347222222222217E-3</v>
@@ -5400,8 +11239,11 @@
       <c r="E31">
         <v>0.13</v>
       </c>
+      <c r="F31">
+        <v>0.19800000000000001</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f t="shared" si="2"/>
         <v>5.208333333333333E-3</v>
@@ -5418,8 +11260,11 @@
       <c r="E32">
         <v>0.13700000000000001</v>
       </c>
+      <c r="F32">
+        <v>0.19500000000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f t="shared" si="2"/>
         <v>5.3819444444444444E-3</v>
@@ -5436,8 +11281,11 @@
       <c r="E33">
         <v>0.13500000000000001</v>
       </c>
+      <c r="F33">
+        <v>0.189</v>
+      </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f t="shared" si="2"/>
         <v>5.5555555555555558E-3</v>
@@ -5454,8 +11302,11 @@
       <c r="E34">
         <v>0.115</v>
       </c>
+      <c r="F34">
+        <v>0.188</v>
+      </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f t="shared" si="2"/>
         <v>5.7291666666666671E-3</v>
@@ -5472,8 +11323,11 @@
       <c r="E35">
         <v>0.16200000000000001</v>
       </c>
+      <c r="F35">
+        <v>0.188</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f t="shared" si="2"/>
         <v>5.9027777777777785E-3</v>
@@ -5490,8 +11344,11 @@
       <c r="E36">
         <v>0.13100000000000001</v>
       </c>
+      <c r="F36">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f t="shared" si="2"/>
         <v>6.0763888888888899E-3</v>
@@ -5508,8 +11365,11 @@
       <c r="E37">
         <v>0.12</v>
       </c>
+      <c r="F37">
+        <v>0.191</v>
+      </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f t="shared" si="2"/>
         <v>6.2500000000000012E-3</v>
@@ -5526,8 +11386,11 @@
       <c r="E38">
         <v>0.115</v>
       </c>
+      <c r="F38">
+        <v>0.182</v>
+      </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f>TIME(0,0,15)+A38</f>
         <v>6.4236111111111126E-3</v>
@@ -5544,8 +11407,11 @@
       <c r="E39">
         <v>0.12</v>
       </c>
+      <c r="F39">
+        <v>0.187</v>
+      </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f>TIME(0,0,15)+A39</f>
         <v>6.5972222222222239E-3</v>
@@ -5562,8 +11428,11 @@
       <c r="E40">
         <v>0.14299999999999999</v>
       </c>
+      <c r="F40">
+        <v>0.193</v>
+      </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f>TIME(0,0,15)+A40</f>
         <v>6.7708333333333353E-3</v>
@@ -5580,8 +11449,11 @@
       <c r="E41">
         <v>0.14199999999999999</v>
       </c>
+      <c r="F41">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f>TIME(0,0,15)+A41</f>
         <v>6.9444444444444467E-3</v>
@@ -5598,10 +11470,13 @@
       <c r="E42">
         <v>0.13200000000000001</v>
       </c>
+      <c r="F42">
+        <v>0.19500000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5610,44 +11485,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -5663,8 +11541,11 @@
       <c r="E3" s="5">
         <v>53.8</v>
       </c>
+      <c r="F3" s="5">
+        <v>112.667</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3.4722222222222224E-4</v>
       </c>
@@ -5680,8 +11561,11 @@
       <c r="E4" s="5">
         <v>143.6</v>
       </c>
+      <c r="F4" s="5">
+        <v>283.06700000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>5.2083333333333333E-4</v>
       </c>
@@ -5697,8 +11581,11 @@
       <c r="E5" s="5">
         <v>252.267</v>
       </c>
+      <c r="F5" s="5">
+        <v>447.46699999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -5714,8 +11601,11 @@
       <c r="E6" s="5">
         <v>468.93299999999999</v>
       </c>
+      <c r="F6" s="5">
+        <v>612.86699999999996</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>8.6805555555555551E-4</v>
       </c>
@@ -5731,8 +11621,11 @@
       <c r="E7" s="5">
         <v>601.93299999999999</v>
       </c>
+      <c r="F7" s="5">
+        <v>773.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1.0416666666666667E-3</v>
       </c>
@@ -5748,8 +11641,11 @@
       <c r="E8" s="5">
         <v>731.66700000000003</v>
       </c>
+      <c r="F8" s="5">
+        <v>933.66700000000003</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1.2152777777777778E-3</v>
       </c>
@@ -5765,8 +11661,11 @@
       <c r="E9" s="5">
         <v>850.86699999999996</v>
       </c>
+      <c r="F9" s="5">
+        <v>1093.5999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>1.3888888888888889E-3</v>
       </c>
@@ -5782,8 +11681,11 @@
       <c r="E10" s="5">
         <v>959.06700000000001</v>
       </c>
+      <c r="F10" s="5">
+        <v>1239.2</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>1.5624999999999999E-3</v>
       </c>
@@ -5799,8 +11701,11 @@
       <c r="E11" s="5">
         <v>1074.7329999999999</v>
       </c>
+      <c r="F11" s="5">
+        <v>1364.6669999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>1.736111111111111E-3</v>
       </c>
@@ -5816,8 +11721,11 @@
       <c r="E12" s="5">
         <v>1233.5999999999999</v>
       </c>
+      <c r="F12" s="5">
+        <v>1538.5329999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
@@ -5833,8 +11741,11 @@
       <c r="E13" s="5">
         <v>1302.2</v>
       </c>
+      <c r="F13" s="5">
+        <v>1671.6669999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2.0833333333333333E-3</v>
       </c>
@@ -5850,8 +11761,11 @@
       <c r="E14" s="5">
         <v>1455.067</v>
       </c>
+      <c r="F14" s="5">
+        <v>1202.5999999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2.2569444444444447E-3</v>
       </c>
@@ -5867,8 +11781,11 @@
       <c r="E15" s="5">
         <v>1490.133</v>
       </c>
+      <c r="F15" s="5">
+        <v>1817.7329999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2.4305555555555556E-3</v>
       </c>
@@ -5884,8 +11801,11 @@
       <c r="E16" s="5">
         <v>1541.6</v>
       </c>
+      <c r="F16" s="5">
+        <v>2013.2</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2.6041666666666665E-3</v>
       </c>
@@ -5901,8 +11821,11 @@
       <c r="E17" s="5">
         <v>1536.5329999999999</v>
       </c>
+      <c r="F17" s="5">
+        <v>1982.6669999999999</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2.7777777777777779E-3</v>
       </c>
@@ -5918,8 +11841,11 @@
       <c r="E18" s="5">
         <v>1518.133</v>
       </c>
+      <c r="F18" s="5">
+        <v>1990.7329999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2.9513888888888888E-3</v>
       </c>
@@ -5935,8 +11861,11 @@
       <c r="E19" s="5">
         <v>1484.133</v>
       </c>
+      <c r="F19" s="5">
+        <v>2007</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>3.1249999999999997E-3</v>
       </c>
@@ -5952,8 +11881,11 @@
       <c r="E20" s="5">
         <v>1584</v>
       </c>
+      <c r="F20" s="5">
+        <v>1988.5329999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>3.2986111111111111E-3</v>
       </c>
@@ -5969,8 +11901,11 @@
       <c r="E21" s="5">
         <v>1548.5329999999999</v>
       </c>
+      <c r="F21" s="5">
+        <v>1992.133</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>3.472222222222222E-3</v>
       </c>
@@ -5986,8 +11921,11 @@
       <c r="E22" s="5">
         <v>1619.2670000000001</v>
       </c>
+      <c r="F22" s="5">
+        <v>1988.7329999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>3.645833333333333E-3</v>
       </c>
@@ -6003,8 +11941,11 @@
       <c r="E23" s="5">
         <v>1642.067</v>
       </c>
+      <c r="F23" s="5">
+        <v>1984.933</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>3.8194444444444443E-3</v>
       </c>
@@ -6020,8 +11961,11 @@
       <c r="E24" s="5">
         <v>1659.4</v>
       </c>
+      <c r="F24" s="5">
+        <v>1994.133</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>3.9930555555555561E-3</v>
       </c>
@@ -6037,8 +11981,11 @@
       <c r="E25" s="5">
         <v>1551</v>
       </c>
+      <c r="F25" s="5">
+        <v>1992.4</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>4.1666666666666666E-3</v>
       </c>
@@ -6054,8 +12001,11 @@
       <c r="E26" s="5">
         <v>1689.6</v>
       </c>
+      <c r="F26" s="5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>4.340277777777778E-3</v>
       </c>
@@ -6071,8 +12021,11 @@
       <c r="E27" s="5">
         <v>1717.6</v>
       </c>
+      <c r="F27" s="5">
+        <v>1974.5329999999999</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>4.5138888888888893E-3</v>
       </c>
@@ -6088,8 +12041,11 @@
       <c r="E28" s="5">
         <v>1628.6</v>
       </c>
+      <c r="F28" s="5">
+        <v>2013.2670000000001</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>4.6874999999999998E-3</v>
       </c>
@@ -6105,8 +12061,11 @@
       <c r="E29" s="5">
         <v>1632.067</v>
       </c>
+      <c r="F29" s="5">
+        <v>2088</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>4.8611111111111112E-3</v>
       </c>
@@ -6122,8 +12081,11 @@
       <c r="E30" s="5">
         <v>1672</v>
       </c>
+      <c r="F30" s="5">
+        <v>2104.3330000000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>5.0347222222222225E-3</v>
       </c>
@@ -6139,8 +12101,11 @@
       <c r="E31" s="5">
         <v>1633.6669999999999</v>
       </c>
+      <c r="F31" s="5">
+        <v>2064.6</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>5.208333333333333E-3</v>
       </c>
@@ -6156,8 +12121,11 @@
       <c r="E32" s="5">
         <v>1650</v>
       </c>
+      <c r="F32" s="5">
+        <v>2060.3330000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>5.3819444444444453E-3</v>
       </c>
@@ -6173,8 +12141,11 @@
       <c r="E33" s="5">
         <v>1647</v>
       </c>
+      <c r="F33" s="5">
+        <v>2080.7330000000002</v>
+      </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>5.5555555555555558E-3</v>
       </c>
@@ -6190,8 +12161,11 @@
       <c r="E34" s="5">
         <v>1676.8</v>
       </c>
+      <c r="F34" s="5">
+        <v>2104.933</v>
+      </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>5.7291666666666671E-3</v>
       </c>
@@ -6207,8 +12181,11 @@
       <c r="E35" s="5">
         <v>1561.6669999999999</v>
       </c>
+      <c r="F35" s="5">
+        <v>2100.4</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>5.9027777777777776E-3</v>
       </c>
@@ -6224,8 +12201,11 @@
       <c r="E36" s="5">
         <v>1658.2</v>
       </c>
+      <c r="F36" s="5">
+        <v>2097.933</v>
+      </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>6.076388888888889E-3</v>
       </c>
@@ -6241,8 +12221,11 @@
       <c r="E37" s="5">
         <v>1697.133</v>
       </c>
+      <c r="F37" s="5">
+        <v>2109.933</v>
+      </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>6.2499999999999995E-3</v>
       </c>
@@ -6258,8 +12241,11 @@
       <c r="E38" s="5">
         <v>1689.2670000000001</v>
       </c>
+      <c r="F38" s="5">
+        <v>2136.7330000000002</v>
+      </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>6.4236111111111117E-3</v>
       </c>
@@ -6275,8 +12261,11 @@
       <c r="E39" s="5">
         <v>1683.6</v>
       </c>
+      <c r="F39" s="5">
+        <v>2083.2669999999998</v>
+      </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>6.5972222222222222E-3</v>
       </c>
@@ -6292,8 +12281,11 @@
       <c r="E40" s="5">
         <v>1612.8</v>
       </c>
+      <c r="F40" s="5">
+        <v>2111.3330000000001</v>
+      </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>6.7708333333333336E-3</v>
       </c>
@@ -6309,8 +12301,11 @@
       <c r="E41" s="5">
         <v>1621</v>
       </c>
+      <c r="F41" s="5">
+        <v>2045.4670000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -6325,6 +12320,9 @@
       </c>
       <c r="E42" s="5">
         <v>1642.133</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2081.933</v>
       </c>
     </row>
   </sheetData>
